--- a/biology/Médecine/Maurice_Sourdille/Maurice_Sourdille.xlsx
+++ b/biology/Médecine/Maurice_Sourdille/Maurice_Sourdille.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Maurice Sourdille est un chirurgien oto-rhino-laryngologiste et ophtalmologiste français né le 25 octobre 1885 à Nantes et mort le 20 septembre 1961 à Paris.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Maurice Louis Joseph Marie Sourdille est le fils de l'industriel Philippe Sourdille et de Victorine Éloïse Baudot. Marié à Anne-Marie Vincent (fille du bâtonnier Alexandre Jules Vincent et sœur du préfet Alexandre Vincent), il est le père de Jacques Sourdille.
 Élève à Saint-Stanislas puis au lycée de Nantes, il suit ses deux premières années de médecine à Nantes, est externe des hôpitaux de Nantes en 1905 puis des hôpitaux de Paris en 1906, avant d'être admis à l'internat en 1911.
-Avec son frère Gilbert, il fonde à Nantes une clinique privée en 1928 (la clinique Sourdille, devenue Institut ophtalmologique Sourdille-Atlantique)[1].
+Avec son frère Gilbert, il fonde à Nantes une clinique privée en 1928 (la clinique Sourdille, devenue Institut ophtalmologique Sourdille-Atlantique).
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Tendances évolutives de la fenestration (1955)
 Traitement chirurgical de l'otospongiose (1948)
@@ -577,7 +593,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Chevalier de la Légion d'honneur
 Officier d'Académie
@@ -610,7 +628,9 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Boulevard des Professeurs Sourdille, à Nantes</t>
         </is>
